--- a/inst/doc/files/parameterization_default.xlsx
+++ b/inst/doc/files/parameterization_default.xlsx
@@ -380,19 +380,19 @@
     <t>SoilDensity</t>
   </si>
   <si>
-    <t>Densité apparente du sol dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Soil bulk density (0-30cm)</t>
+    <t>Densité apparente du sol (tamisé, &lt; 5mm) dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Soil bulk density, sieved &lt; 5mm, 0-30cm layer</t>
   </si>
   <si>
     <t>$g.cm^{-3}$</t>
   </si>
   <si>
-    <t>Densité apparente du sol dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Soil bulk density (30 cm-rooting depth)</t>
+    <t>Densité apparente du sol (tamisé, &lt; 5mm) dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Soil bulk density, sieved &lt; 5mm, 30 cm-rooting depth layer</t>
   </si>
   <si>
     <t>StoneContent</t>
@@ -850,9 +850,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,20 +1284,20 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.219387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.7551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="104.755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.7551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="16.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,10 +1786,10 @@
       <c r="C20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="0" t="s">
         <v>120</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -1809,10 +1809,10 @@
       <c r="C21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="0" t="s">
         <v>123</v>
       </c>
       <c r="F21" s="11" t="s">

--- a/inst/doc/files/parameterization_default.xlsx
+++ b/inst/doc/files/parameterization_default.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="design" sheetId="1" state="visible" r:id="rId2"/>
@@ -353,7 +353,7 @@
     <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
   </si>
   <si>
-    <t>Water content at field capacity (0-30 cm)</t>
+    <t>Gravimetric water content at field capacity (0-30 cm)</t>
   </si>
   <si>
     <t>$\%$</t>
@@ -362,19 +362,19 @@
     <t>Humidité massique au point de flétrissement dans l'horizon de surface (0 - 30 cm)</t>
   </si>
   <si>
-    <t>Water content at wilting point (0-30cm)</t>
+    <t>Gravimetric water content at wilting point (0-30cm)</t>
   </si>
   <si>
     <t>Humidité massique à la capacité au champ dans l'horizon inférieur (30 cm - profondeur)</t>
   </si>
   <si>
-    <t>Water content at field capacity (30 cm-rooting depth)</t>
+    <t>Gravimetric water content at field capacity (30 cm-rooting depth)</t>
   </si>
   <si>
     <t>Humidité massique au point de flétrissement dans l'horizon inférieur (30 cm - profondeur)</t>
   </si>
   <si>
-    <t>Water content at wilting point (30 cm-rooting depth)</t>
+    <t>Gravimetric  water content at wilting point (30 cm-rooting depth)</t>
   </si>
   <si>
     <t>SoilDensity</t>
@@ -844,15 +844,15 @@
   </sheetPr>
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,20 +1284,20 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="104.755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.7551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="118.433673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.8367346938775"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/inst/doc/files/parameterization_default.xlsx
+++ b/inst/doc/files/parameterization_default.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="design" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="metadata" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="design_metadata" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="climate" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="climate_metadata" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="217">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">annee</t>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
     <t xml:space="preserve">file</t>
@@ -567,17 +569,123 @@
   </si>
   <si>
     <t xml:space="preserve">Initial value for soil water capacity in root layer (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteo_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_vle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifiant du post climatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id of climate station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date de l’observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observation date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TemperatureAirMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Température minimale de l'air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily average of minimum air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TemperatureAirMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Température moyenne de l'air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily average of mean air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TemperatureAirMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Température maximale de l'air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily average of maximum air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayonnement global incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily sum of global incident radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ.m-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evapotranspiration de référence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily sum of reference evapotranspiration (Penman-Monteith)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Précipitations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily sum of rainfall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -624,7 +732,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +749,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD0D7E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -700,7 +814,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -769,6 +883,22 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -814,7 +944,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -849,7 +979,7 @@
   <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD4" activeCellId="0" sqref="AD4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1302,7 +1432,7 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2337,4 +2467,9754 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H367"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C2" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E2" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F2" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="19" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>42371</v>
+      </c>
+      <c r="C3" s="19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E3" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" s="19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G3" s="19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H3" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42372</v>
+      </c>
+      <c r="C4" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D4" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="19" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>42373</v>
+      </c>
+      <c r="C5" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F5" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>42374</v>
+      </c>
+      <c r="C6" s="19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>42375</v>
+      </c>
+      <c r="C7" s="19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D7" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>42376</v>
+      </c>
+      <c r="C8" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="F8" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>42377</v>
+      </c>
+      <c r="C9" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E9" s="19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F9" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>42378</v>
+      </c>
+      <c r="C10" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>42379</v>
+      </c>
+      <c r="C11" s="19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D11" s="19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E11" s="19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>42380</v>
+      </c>
+      <c r="C12" s="19" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D12" s="19" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E12" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F12" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="19" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E13" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F13" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="19" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>42382</v>
+      </c>
+      <c r="C14" s="19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E14" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F14" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>42383</v>
+      </c>
+      <c r="C15" s="19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D15" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>42384</v>
+      </c>
+      <c r="C16" s="19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D16" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F16" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>42385</v>
+      </c>
+      <c r="C17" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E17" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="19" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>42386</v>
+      </c>
+      <c r="C18" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D18" s="19" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="E18" s="19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>42387</v>
+      </c>
+      <c r="C19" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D19" s="19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E19" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>42388</v>
+      </c>
+      <c r="C20" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D20" s="19" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E20" s="19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F20" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>42389</v>
+      </c>
+      <c r="C21" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D21" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E21" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F21" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="19" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>42390</v>
+      </c>
+      <c r="C22" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D22" s="19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E22" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="19" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>42391</v>
+      </c>
+      <c r="C23" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D23" s="19" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="H23" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>42392</v>
+      </c>
+      <c r="C24" s="19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D24" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E24" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F24" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="19" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="H24" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>42393</v>
+      </c>
+      <c r="C25" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D25" s="19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F25" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H25" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>42394</v>
+      </c>
+      <c r="C26" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D26" s="19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E26" s="19" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F26" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="19" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="H26" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>42395</v>
+      </c>
+      <c r="C27" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D27" s="19" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F27" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="19" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="H27" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>42396</v>
+      </c>
+      <c r="C28" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D28" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E28" s="19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F28" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G28" s="19" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="H28" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>42397</v>
+      </c>
+      <c r="C29" s="19" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D29" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" s="19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F29" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H29" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>42398</v>
+      </c>
+      <c r="C30" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D30" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E30" s="19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F30" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H30" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>42399</v>
+      </c>
+      <c r="C31" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D31" s="19" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E31" s="19" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F31" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="19" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="H31" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>42400</v>
+      </c>
+      <c r="C32" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D32" s="19" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E32" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F32" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G32" s="19" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H32" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>42401</v>
+      </c>
+      <c r="C33" s="19" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D33" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E33" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F33" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G33" s="19" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H33" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>42402</v>
+      </c>
+      <c r="C34" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D34" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E34" s="19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F34" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H34" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>42403</v>
+      </c>
+      <c r="C35" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D35" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E35" s="19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F35" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G35" s="19" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="H35" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>42404</v>
+      </c>
+      <c r="C36" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D36" s="19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E36" s="19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F36" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G36" s="19" t="n">
+        <v>9.86</v>
+      </c>
+      <c r="H36" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>42405</v>
+      </c>
+      <c r="C37" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E37" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F37" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G37" s="19" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="H37" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>42406</v>
+      </c>
+      <c r="C38" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D38" s="19" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E38" s="19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F38" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="19" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="H38" s="19" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>42407</v>
+      </c>
+      <c r="C39" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D39" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E39" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F39" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G39" s="19" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="H39" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>42408</v>
+      </c>
+      <c r="C40" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D40" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E40" s="19" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F40" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G40" s="19" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="H40" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>42409</v>
+      </c>
+      <c r="C41" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D41" s="19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E41" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F41" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G41" s="19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H41" s="19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>42410</v>
+      </c>
+      <c r="C42" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D42" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E42" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F42" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="19" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="H42" s="19" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>42411</v>
+      </c>
+      <c r="C43" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D43" s="19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E43" s="19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F43" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G43" s="19" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="H43" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>42412</v>
+      </c>
+      <c r="C44" s="19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D44" s="19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E44" s="19" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="F44" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G44" s="19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H44" s="19" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>42413</v>
+      </c>
+      <c r="C45" s="19" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D45" s="19" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E45" s="19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F45" s="19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G45" s="19" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H45" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>42414</v>
+      </c>
+      <c r="C46" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D46" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E46" s="19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F46" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G46" s="19" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="H46" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>42415</v>
+      </c>
+      <c r="C47" s="19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D47" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E47" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F47" s="19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G47" s="19" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H47" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>42416</v>
+      </c>
+      <c r="C48" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D48" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E48" s="19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F48" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="19" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="H48" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>42417</v>
+      </c>
+      <c r="C49" s="19" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D49" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E49" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F49" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G49" s="19" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="H49" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>42418</v>
+      </c>
+      <c r="C50" s="19" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D50" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E50" s="19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F50" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G50" s="19" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="H50" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>42419</v>
+      </c>
+      <c r="C51" s="19" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D51" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E51" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F51" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G51" s="19" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="H51" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>42420</v>
+      </c>
+      <c r="C52" s="19" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D52" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E52" s="19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F52" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G52" s="19" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="H52" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>42421</v>
+      </c>
+      <c r="C53" s="19" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D53" s="19" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E53" s="19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F53" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G53" s="19" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H53" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>42422</v>
+      </c>
+      <c r="C54" s="19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D54" s="19" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E54" s="19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F54" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G54" s="19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H54" s="19" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>42423</v>
+      </c>
+      <c r="C55" s="19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D55" s="19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E55" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F55" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G55" s="19" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="H55" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>42424</v>
+      </c>
+      <c r="C56" s="19" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D56" s="19" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E56" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="F56" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G56" s="19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H56" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>42425</v>
+      </c>
+      <c r="C57" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D57" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E57" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F57" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G57" s="19" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="H57" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>42426</v>
+      </c>
+      <c r="C58" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D58" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E58" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F58" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G58" s="19" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="H58" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>42427</v>
+      </c>
+      <c r="C59" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D59" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F59" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G59" s="19" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="H59" s="19" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>42428</v>
+      </c>
+      <c r="C60" s="19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D60" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="E60" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F60" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G60" s="19" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H60" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>42429</v>
+      </c>
+      <c r="C61" s="19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D61" s="19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E61" s="19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F61" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G61" s="19" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H61" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>42430</v>
+      </c>
+      <c r="C62" s="19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D62" s="19" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E62" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F62" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G62" s="19" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="H62" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>42431</v>
+      </c>
+      <c r="C63" s="19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D63" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E63" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F63" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G63" s="19" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H63" s="19" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>42432</v>
+      </c>
+      <c r="C64" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D64" s="19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E64" s="19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F64" s="19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G64" s="19" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H64" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>42433</v>
+      </c>
+      <c r="C65" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D65" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E65" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F65" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G65" s="19" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="H65" s="19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>42434</v>
+      </c>
+      <c r="C66" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D66" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F66" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G66" s="19" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="H66" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>42435</v>
+      </c>
+      <c r="C67" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D67" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E67" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F67" s="19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G67" s="19" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="H67" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>42436</v>
+      </c>
+      <c r="C68" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D68" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E68" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F68" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G68" s="19" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="H68" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>42437</v>
+      </c>
+      <c r="C69" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D69" s="19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E69" s="19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F69" s="19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G69" s="19" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="H69" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>42438</v>
+      </c>
+      <c r="C70" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D70" s="19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E70" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F70" s="19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G70" s="19" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="H70" s="19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>42439</v>
+      </c>
+      <c r="C71" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D71" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E71" s="19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F71" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G71" s="19" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="H71" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>42440</v>
+      </c>
+      <c r="C72" s="19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D72" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E72" s="19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F72" s="19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G72" s="19" t="n">
+        <v>8.86</v>
+      </c>
+      <c r="H72" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>42441</v>
+      </c>
+      <c r="C73" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D73" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E73" s="19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F73" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G73" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="H73" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>42442</v>
+      </c>
+      <c r="C74" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D74" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="E74" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G74" s="19" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="H74" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>42443</v>
+      </c>
+      <c r="C75" s="19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D75" s="19" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E75" s="19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F75" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G75" s="19" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="H75" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>42444</v>
+      </c>
+      <c r="C76" s="19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D76" s="19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E76" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F76" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G76" s="19" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="H76" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>42445</v>
+      </c>
+      <c r="C77" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D77" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E77" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F77" s="19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G77" s="19" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="H77" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>42446</v>
+      </c>
+      <c r="C78" s="19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D78" s="19" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="E78" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F78" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G78" s="19" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="H78" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>42447</v>
+      </c>
+      <c r="C79" s="19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D79" s="19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E79" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F79" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G79" s="19" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="H79" s="19" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>42448</v>
+      </c>
+      <c r="C80" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E80" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F80" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G80" s="19" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H80" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>42449</v>
+      </c>
+      <c r="C81" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="D81" s="19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E81" s="19" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F81" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G81" s="19" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H81" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C82" s="19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D82" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E82" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F82" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G82" s="19" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="H82" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>42451</v>
+      </c>
+      <c r="C83" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D83" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E83" s="19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F83" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G83" s="19" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="H83" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>42452</v>
+      </c>
+      <c r="C84" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D84" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E84" s="19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F84" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G84" s="19" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="H84" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>42453</v>
+      </c>
+      <c r="C85" s="19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D85" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E85" s="19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F85" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G85" s="19" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="H85" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>42454</v>
+      </c>
+      <c r="C86" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D86" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E86" s="19" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F86" s="19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G86" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="H86" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>42455</v>
+      </c>
+      <c r="C87" s="19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D87" s="19" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E87" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F87" s="19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G87" s="19" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="H87" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>42456</v>
+      </c>
+      <c r="C88" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D88" s="19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E88" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F88" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G88" s="19" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="H88" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>42457</v>
+      </c>
+      <c r="C89" s="19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D89" s="19" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E89" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F89" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G89" s="19" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="H89" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>42458</v>
+      </c>
+      <c r="C90" s="19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D90" s="19" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E90" s="19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F90" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G90" s="19" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H90" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>42459</v>
+      </c>
+      <c r="C91" s="19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D91" s="19" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E91" s="19" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F91" s="19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G91" s="19" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="H91" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>42460</v>
+      </c>
+      <c r="C92" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D92" s="19" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E92" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F92" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H92" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>42461</v>
+      </c>
+      <c r="C93" s="19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D93" s="19" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E93" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F93" s="19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G93" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H93" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>42462</v>
+      </c>
+      <c r="C94" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E94" s="19" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F94" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G94" s="19" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="H94" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>42463</v>
+      </c>
+      <c r="C95" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D95" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E95" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F95" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G95" s="19" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="H95" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>42464</v>
+      </c>
+      <c r="C96" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D96" s="19" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E96" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F96" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" s="19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="H96" s="19" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>42465</v>
+      </c>
+      <c r="C97" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="D97" s="19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E97" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F97" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G97" s="19" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="H97" s="19" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>42466</v>
+      </c>
+      <c r="C98" s="19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D98" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E98" s="19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F98" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G98" s="19" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="H98" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>42467</v>
+      </c>
+      <c r="C99" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D99" s="19" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E99" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F99" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="19" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="H99" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>42468</v>
+      </c>
+      <c r="C100" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D100" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E100" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F100" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G100" s="19" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="H100" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>42469</v>
+      </c>
+      <c r="C101" s="19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D101" s="19" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E101" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F101" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G101" s="19" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="H101" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>42470</v>
+      </c>
+      <c r="C102" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D102" s="19" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E102" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F102" s="19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G102" s="19" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="H102" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>42471</v>
+      </c>
+      <c r="C103" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D103" s="19" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E103" s="19" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F103" s="19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G103" s="19" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="H103" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>42472</v>
+      </c>
+      <c r="C104" s="19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D104" s="19" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E104" s="19" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F104" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G104" s="19" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="H104" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>42473</v>
+      </c>
+      <c r="C105" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D105" s="19" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E105" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F105" s="19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G105" s="19" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="H105" s="19" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>42474</v>
+      </c>
+      <c r="C106" s="19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D106" s="19" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E106" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F106" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G106" s="19" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="H106" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>42475</v>
+      </c>
+      <c r="C107" s="19" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D107" s="19" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E107" s="19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F107" s="19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G107" s="19" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="H107" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>42476</v>
+      </c>
+      <c r="C108" s="19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D108" s="19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E108" s="19" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F108" s="19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G108" s="19" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H108" s="19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>42477</v>
+      </c>
+      <c r="C109" s="19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D109" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E109" s="19" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F109" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G109" s="19" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="H109" s="19" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>42478</v>
+      </c>
+      <c r="C110" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D110" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E110" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F110" s="19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G110" s="19" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="H110" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>42479</v>
+      </c>
+      <c r="C111" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D111" s="19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E111" s="19" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F111" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" s="19" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="H111" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>42480</v>
+      </c>
+      <c r="C112" s="19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D112" s="19" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E112" s="19" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F112" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G112" s="19" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="H112" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>42481</v>
+      </c>
+      <c r="C113" s="19" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D113" s="19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E113" s="19" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F113" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G113" s="19" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="H113" s="19" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>42482</v>
+      </c>
+      <c r="C114" s="19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D114" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E114" s="19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F114" s="19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G114" s="19" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="H114" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>42483</v>
+      </c>
+      <c r="C115" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D115" s="19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E115" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F115" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G115" s="19" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H115" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>42484</v>
+      </c>
+      <c r="C116" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D116" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E116" s="19" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F116" s="19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G116" s="19" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H116" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>42485</v>
+      </c>
+      <c r="C117" s="19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D117" s="19" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E117" s="19" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F117" s="19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G117" s="19" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H117" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>42486</v>
+      </c>
+      <c r="C118" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D118" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="E118" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F118" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" s="19" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="H118" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>42487</v>
+      </c>
+      <c r="C119" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D119" s="19" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E119" s="19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F119" s="19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G119" s="19" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="H119" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>42488</v>
+      </c>
+      <c r="C120" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D120" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E120" s="19" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F120" s="19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G120" s="19" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="H120" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>42489</v>
+      </c>
+      <c r="C121" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D121" s="19" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E121" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F121" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G121" s="19" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H121" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>42490</v>
+      </c>
+      <c r="C122" s="19" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D122" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E122" s="19" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="F122" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" s="19" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="H122" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>42491</v>
+      </c>
+      <c r="C123" s="19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D123" s="19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E123" s="19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F123" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G123" s="19" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H123" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>42492</v>
+      </c>
+      <c r="C124" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D124" s="19" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E124" s="19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F124" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G124" s="19" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="H124" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>42493</v>
+      </c>
+      <c r="C125" s="19" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D125" s="19" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E125" s="19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F125" s="19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G125" s="19" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="H125" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>42494</v>
+      </c>
+      <c r="C126" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D126" s="19" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E126" s="19" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F126" s="19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G126" s="19" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="H126" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>42495</v>
+      </c>
+      <c r="C127" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D127" s="19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E127" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F127" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G127" s="19" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="H127" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>42496</v>
+      </c>
+      <c r="C128" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D128" s="19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E128" s="19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F128" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G128" s="19" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="H128" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>42497</v>
+      </c>
+      <c r="C129" s="19" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D129" s="19" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E129" s="19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F129" s="19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G129" s="19" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="H129" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>42498</v>
+      </c>
+      <c r="C130" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D130" s="19" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E130" s="19" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F130" s="19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G130" s="19" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="H130" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>42499</v>
+      </c>
+      <c r="C131" s="19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D131" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E131" s="19" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F131" s="19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G131" s="19" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="H131" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>42500</v>
+      </c>
+      <c r="C132" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D132" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" s="19" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F132" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G132" s="19" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="H132" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>42501</v>
+      </c>
+      <c r="C133" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D133" s="19" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E133" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F133" s="19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G133" s="19" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="H133" s="19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>42502</v>
+      </c>
+      <c r="C134" s="19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D134" s="19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E134" s="19" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F134" s="19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G134" s="19" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="H134" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>42503</v>
+      </c>
+      <c r="C135" s="19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D135" s="19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E135" s="19" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F135" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G135" s="19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H135" s="19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>42504</v>
+      </c>
+      <c r="C136" s="19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D136" s="19" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E136" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F136" s="19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G136" s="19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H136" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>42505</v>
+      </c>
+      <c r="C137" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D137" s="19" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E137" s="19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F137" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G137" s="19" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="H137" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>42506</v>
+      </c>
+      <c r="C138" s="19" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D138" s="19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E138" s="19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F138" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G138" s="19" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="H138" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>42507</v>
+      </c>
+      <c r="C139" s="19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D139" s="19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E139" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F139" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G139" s="19" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="H139" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>42508</v>
+      </c>
+      <c r="C140" s="19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D140" s="19" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E140" s="19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F140" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" s="19" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="H140" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>42509</v>
+      </c>
+      <c r="C141" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D141" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E141" s="19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F141" s="19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G141" s="19" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="H141" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>42510</v>
+      </c>
+      <c r="C142" s="19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D142" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="E142" s="19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F142" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G142" s="19" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="H142" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>42511</v>
+      </c>
+      <c r="C143" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D143" s="19" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E143" s="19" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F143" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G143" s="19" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="H143" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>42512</v>
+      </c>
+      <c r="C144" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D144" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E144" s="19" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F144" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G144" s="19" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="H144" s="19" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>42513</v>
+      </c>
+      <c r="C145" s="19" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="D145" s="19" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E145" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F145" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G145" s="19" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="H145" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>42514</v>
+      </c>
+      <c r="C146" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D146" s="19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E146" s="19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F146" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G146" s="19" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="H146" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>42515</v>
+      </c>
+      <c r="C147" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D147" s="19" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E147" s="19" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F147" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G147" s="19" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="H147" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>42516</v>
+      </c>
+      <c r="C148" s="19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D148" s="19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E148" s="19" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F148" s="19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G148" s="19" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="H148" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>42517</v>
+      </c>
+      <c r="C149" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D149" s="19" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E149" s="19" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F149" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G149" s="19" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="H149" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>42518</v>
+      </c>
+      <c r="C150" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D150" s="19" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E150" s="19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F150" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G150" s="19" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="H150" s="19" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>42519</v>
+      </c>
+      <c r="C151" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D151" s="19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E151" s="19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F151" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G151" s="19" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="H151" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>42520</v>
+      </c>
+      <c r="C152" s="19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D152" s="19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E152" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F152" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G152" s="19" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="H152" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>42521</v>
+      </c>
+      <c r="C153" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D153" s="19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E153" s="19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F153" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G153" s="19" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H153" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C154" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D154" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E154" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F154" s="19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G154" s="19" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H154" s="19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>42523</v>
+      </c>
+      <c r="C155" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D155" s="19" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E155" s="19" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F155" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G155" s="19" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="H155" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>42524</v>
+      </c>
+      <c r="C156" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D156" s="19" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E156" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F156" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" s="19" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H156" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>42525</v>
+      </c>
+      <c r="C157" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D157" s="19" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E157" s="19" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F157" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G157" s="19" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="H157" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>42526</v>
+      </c>
+      <c r="C158" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D158" s="19" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E158" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F158" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G158" s="19" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="H158" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>42527</v>
+      </c>
+      <c r="C159" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D159" s="19" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E159" s="19" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F159" s="19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G159" s="19" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="H159" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>42528</v>
+      </c>
+      <c r="C160" s="19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D160" s="19" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E160" s="19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F160" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G160" s="19" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="H160" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>42529</v>
+      </c>
+      <c r="C161" s="19" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D161" s="19" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E161" s="19" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F161" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G161" s="19" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="H161" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>42530</v>
+      </c>
+      <c r="C162" s="19" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D162" s="19" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E162" s="19" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F162" s="19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G162" s="19" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="H162" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>42531</v>
+      </c>
+      <c r="C163" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D163" s="19" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E163" s="19" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F163" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G163" s="19" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="H163" s="19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>42532</v>
+      </c>
+      <c r="C164" s="19" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D164" s="19" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E164" s="19" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F164" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G164" s="19" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="H164" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>42533</v>
+      </c>
+      <c r="C165" s="19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D165" s="19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E165" s="19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F165" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G165" s="19" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="H165" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>42534</v>
+      </c>
+      <c r="C166" s="19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D166" s="19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E166" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F166" s="19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G166" s="19" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="H166" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>42535</v>
+      </c>
+      <c r="C167" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D167" s="19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E167" s="19" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F167" s="19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G167" s="19" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="H167" s="19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>42536</v>
+      </c>
+      <c r="C168" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D168" s="19" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E168" s="19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F168" s="19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G168" s="19" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="H168" s="19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>42537</v>
+      </c>
+      <c r="C169" s="19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D169" s="19" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E169" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F169" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G169" s="19" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="H169" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>42538</v>
+      </c>
+      <c r="C170" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D170" s="19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E170" s="19" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F170" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G170" s="19" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="H170" s="19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>42539</v>
+      </c>
+      <c r="C171" s="19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D171" s="19" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E171" s="19" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F171" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G171" s="19" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="H171" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>42540</v>
+      </c>
+      <c r="C172" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D172" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E172" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F172" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G172" s="19" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="H172" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>42541</v>
+      </c>
+      <c r="C173" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D173" s="19" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E173" s="19" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F173" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G173" s="19" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="H173" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>42542</v>
+      </c>
+      <c r="C174" s="19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D174" s="19" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E174" s="19" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F174" s="19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G174" s="19" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="H174" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>42543</v>
+      </c>
+      <c r="C175" s="19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D175" s="19" t="n">
+        <v>31</v>
+      </c>
+      <c r="E175" s="19" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F175" s="19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G175" s="19" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="H175" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>42544</v>
+      </c>
+      <c r="C176" s="19" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D176" s="19" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E176" s="19" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F176" s="19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G176" s="19" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="H176" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>42545</v>
+      </c>
+      <c r="C177" s="19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D177" s="19" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E177" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="F177" s="19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G177" s="19" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H177" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>42546</v>
+      </c>
+      <c r="C178" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D178" s="19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E178" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F178" s="19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G178" s="19" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="H178" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>42547</v>
+      </c>
+      <c r="C179" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D179" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="E179" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F179" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G179" s="19" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="H179" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>42548</v>
+      </c>
+      <c r="C180" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D180" s="19" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E180" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F180" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G180" s="19" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="H180" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>42549</v>
+      </c>
+      <c r="C181" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D181" s="19" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E181" s="19" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F181" s="19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G181" s="19" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="H181" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>42550</v>
+      </c>
+      <c r="C182" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D182" s="19" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E182" s="19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F182" s="19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G182" s="19" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="H182" s="19" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>42551</v>
+      </c>
+      <c r="C183" s="19" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D183" s="19" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E183" s="19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F183" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G183" s="19" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="H183" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C184" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D184" s="19" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E184" s="19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F184" s="19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G184" s="19" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H184" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>42553</v>
+      </c>
+      <c r="C185" s="19" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D185" s="19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E185" s="19" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F185" s="19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G185" s="19" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="H185" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>42554</v>
+      </c>
+      <c r="C186" s="19" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D186" s="19" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E186" s="19" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F186" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G186" s="19" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H186" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>42555</v>
+      </c>
+      <c r="C187" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D187" s="19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E187" s="19" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F187" s="19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G187" s="19" t="n">
+        <v>29</v>
+      </c>
+      <c r="H187" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>42556</v>
+      </c>
+      <c r="C188" s="19" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D188" s="19" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E188" s="19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F188" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G188" s="19" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="H188" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>42557</v>
+      </c>
+      <c r="C189" s="19" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D189" s="19" t="n">
+        <v>29</v>
+      </c>
+      <c r="E189" s="19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F189" s="19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G189" s="19" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="H189" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>42558</v>
+      </c>
+      <c r="C190" s="19" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D190" s="19" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E190" s="19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F190" s="19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G190" s="19" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="H190" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>42559</v>
+      </c>
+      <c r="C191" s="19" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D191" s="19" t="n">
+        <v>31</v>
+      </c>
+      <c r="E191" s="19" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F191" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G191" s="19" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="H191" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>42560</v>
+      </c>
+      <c r="C192" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D192" s="19" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E192" s="19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F192" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G192" s="19" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="H192" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>42561</v>
+      </c>
+      <c r="C193" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D193" s="19" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E193" s="19" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F193" s="19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G193" s="19" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="H193" s="19" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>42562</v>
+      </c>
+      <c r="C194" s="19" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D194" s="19" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E194" s="19" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F194" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G194" s="19" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="H194" s="19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>42563</v>
+      </c>
+      <c r="C195" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D195" s="19" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E195" s="19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F195" s="19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G195" s="19" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H195" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>42564</v>
+      </c>
+      <c r="C196" s="19" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D196" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E196" s="19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F196" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G196" s="19" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="H196" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>42565</v>
+      </c>
+      <c r="C197" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D197" s="19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E197" s="19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F197" s="19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G197" s="19" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="H197" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>42566</v>
+      </c>
+      <c r="C198" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D198" s="19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E198" s="19" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F198" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G198" s="19" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="H198" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>42567</v>
+      </c>
+      <c r="C199" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D199" s="19" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E199" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F199" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G199" s="19" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="H199" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>42568</v>
+      </c>
+      <c r="C200" s="19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D200" s="19" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E200" s="19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F200" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G200" s="19" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="H200" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>42569</v>
+      </c>
+      <c r="C201" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D201" s="19" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E201" s="19" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F201" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G201" s="19" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="H201" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>42570</v>
+      </c>
+      <c r="C202" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D202" s="19" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E202" s="19" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F202" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G202" s="19" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H202" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>42571</v>
+      </c>
+      <c r="C203" s="19" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D203" s="19" t="n">
+        <v>28</v>
+      </c>
+      <c r="E203" s="19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F203" s="19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G203" s="19" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="H203" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>42572</v>
+      </c>
+      <c r="C204" s="19" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D204" s="19" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E204" s="19" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F204" s="19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G204" s="19" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="H204" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>42573</v>
+      </c>
+      <c r="C205" s="19" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D205" s="19" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E205" s="19" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F205" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G205" s="19" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H205" s="19" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>42574</v>
+      </c>
+      <c r="C206" s="19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D206" s="19" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E206" s="19" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F206" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G206" s="19" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="H206" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>42575</v>
+      </c>
+      <c r="C207" s="19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D207" s="19" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E207" s="19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F207" s="19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G207" s="19" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="H207" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>42576</v>
+      </c>
+      <c r="C208" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D208" s="19" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E208" s="19" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F208" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G208" s="19" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="H208" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>42577</v>
+      </c>
+      <c r="C209" s="19" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D209" s="19" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E209" s="19" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F209" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G209" s="19" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="H209" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>42578</v>
+      </c>
+      <c r="C210" s="19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D210" s="19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E210" s="19" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F210" s="19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G210" s="19" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="H210" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>42579</v>
+      </c>
+      <c r="C211" s="19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D211" s="19" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E211" s="19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F211" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G211" s="19" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="H211" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>42580</v>
+      </c>
+      <c r="C212" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D212" s="19" t="n">
+        <v>31</v>
+      </c>
+      <c r="E212" s="19" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F212" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G212" s="19" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H212" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>42581</v>
+      </c>
+      <c r="C213" s="19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D213" s="19" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E213" s="19" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F213" s="19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G213" s="19" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="H213" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>42582</v>
+      </c>
+      <c r="C214" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D214" s="19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E214" s="19" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F214" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G214" s="19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H214" s="19" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>42583</v>
+      </c>
+      <c r="C215" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D215" s="19" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E215" s="19" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F215" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G215" s="19" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="H215" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>42584</v>
+      </c>
+      <c r="C216" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D216" s="19" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E216" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="F216" s="19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G216" s="19" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="H216" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>42585</v>
+      </c>
+      <c r="C217" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D217" s="19" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E217" s="19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F217" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G217" s="19" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="H217" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>42586</v>
+      </c>
+      <c r="C218" s="19" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D218" s="19" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E218" s="19" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F218" s="19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G218" s="19" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="H218" s="19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>42587</v>
+      </c>
+      <c r="C219" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D219" s="19" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E219" s="19" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F219" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G219" s="19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H219" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>42588</v>
+      </c>
+      <c r="C220" s="19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D220" s="19" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E220" s="19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F220" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G220" s="19" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="H220" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>42589</v>
+      </c>
+      <c r="C221" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D221" s="19" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E221" s="19" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F221" s="19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G221" s="19" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="H221" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>42590</v>
+      </c>
+      <c r="C222" s="19" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D222" s="19" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E222" s="19" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F222" s="19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G222" s="19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H222" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>42591</v>
+      </c>
+      <c r="C223" s="19" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D223" s="19" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E223" s="19" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F223" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G223" s="19" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="H223" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>42592</v>
+      </c>
+      <c r="C224" s="19" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D224" s="19" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E224" s="19" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F224" s="19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G224" s="19" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="H224" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>42593</v>
+      </c>
+      <c r="C225" s="19" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D225" s="19" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E225" s="19" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F225" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G225" s="19" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="H225" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>42594</v>
+      </c>
+      <c r="C226" s="19" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D226" s="19" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E226" s="19" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F226" s="19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G226" s="19" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="H226" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>42595</v>
+      </c>
+      <c r="C227" s="19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D227" s="19" t="n">
+        <v>33</v>
+      </c>
+      <c r="E227" s="19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F227" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G227" s="19" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="H227" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>42596</v>
+      </c>
+      <c r="C228" s="19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D228" s="19" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E228" s="19" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F228" s="19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G228" s="19" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="H228" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>42597</v>
+      </c>
+      <c r="C229" s="19" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D229" s="19" t="n">
+        <v>32</v>
+      </c>
+      <c r="E229" s="19" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F229" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G229" s="19" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H229" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>42598</v>
+      </c>
+      <c r="C230" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D230" s="19" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E230" s="19" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F230" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G230" s="19" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H230" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>42599</v>
+      </c>
+      <c r="C231" s="19" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D231" s="19" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E231" s="19" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F231" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G231" s="19" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="H231" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>42600</v>
+      </c>
+      <c r="C232" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D232" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E232" s="19" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F232" s="19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G232" s="19" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="H232" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>42601</v>
+      </c>
+      <c r="C233" s="19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D233" s="19" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E233" s="19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F233" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G233" s="19" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="H233" s="19" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>42602</v>
+      </c>
+      <c r="C234" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D234" s="19" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E234" s="19" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F234" s="19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G234" s="19" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H234" s="19" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>42603</v>
+      </c>
+      <c r="C235" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D235" s="19" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E235" s="19" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F235" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G235" s="19" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="H235" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>42604</v>
+      </c>
+      <c r="C236" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D236" s="19" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E236" s="19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F236" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G236" s="19" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="H236" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>42605</v>
+      </c>
+      <c r="C237" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D237" s="19" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E237" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="F237" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G237" s="19" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="H237" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>42606</v>
+      </c>
+      <c r="C238" s="19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D238" s="19" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E238" s="19" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F238" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G238" s="19" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="H238" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>42607</v>
+      </c>
+      <c r="C239" s="19" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D239" s="19" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E239" s="19" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F239" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G239" s="19" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="H239" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>42608</v>
+      </c>
+      <c r="C240" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D240" s="19" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E240" s="19" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F240" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G240" s="19" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="H240" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>42609</v>
+      </c>
+      <c r="C241" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D241" s="19" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E241" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="F241" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G241" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H241" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>42610</v>
+      </c>
+      <c r="C242" s="19" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D242" s="19" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E242" s="19" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F242" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G242" s="19" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="H242" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>42611</v>
+      </c>
+      <c r="C243" s="19" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D243" s="19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E243" s="19" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F243" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G243" s="19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="H243" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>42612</v>
+      </c>
+      <c r="C244" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D244" s="19" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E244" s="19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F244" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G244" s="19" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="H244" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>42613</v>
+      </c>
+      <c r="C245" s="19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D245" s="19" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E245" s="19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F245" s="19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G245" s="19" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="H245" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>42614</v>
+      </c>
+      <c r="C246" s="19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D246" s="19" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E246" s="19" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F246" s="19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G246" s="19" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="H246" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>42615</v>
+      </c>
+      <c r="C247" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D247" s="19" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E247" s="19" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F247" s="19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G247" s="19" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="H247" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>42616</v>
+      </c>
+      <c r="C248" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D248" s="19" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E248" s="19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F248" s="19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G248" s="19" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="H248" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>42617</v>
+      </c>
+      <c r="C249" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D249" s="19" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E249" s="19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F249" s="19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G249" s="19" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="H249" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>42618</v>
+      </c>
+      <c r="C250" s="19" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D250" s="19" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E250" s="19" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F250" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G250" s="19" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H250" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>42619</v>
+      </c>
+      <c r="C251" s="19" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D251" s="19" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E251" s="19" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F251" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G251" s="19" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="H251" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>42620</v>
+      </c>
+      <c r="C252" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D252" s="19" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E252" s="19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F252" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G252" s="19" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="H252" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>42621</v>
+      </c>
+      <c r="C253" s="19" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D253" s="19" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E253" s="19" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F253" s="19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G253" s="19" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H253" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>42622</v>
+      </c>
+      <c r="C254" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D254" s="19" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E254" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="F254" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G254" s="19" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="H254" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>42623</v>
+      </c>
+      <c r="C255" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D255" s="19" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E255" s="19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F255" s="19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G255" s="19" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="H255" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>42624</v>
+      </c>
+      <c r="C256" s="19" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D256" s="19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E256" s="19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F256" s="19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G256" s="19" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="H256" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>42625</v>
+      </c>
+      <c r="C257" s="19" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D257" s="19" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E257" s="19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F257" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G257" s="19" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="H257" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>42626</v>
+      </c>
+      <c r="C258" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="D258" s="19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E258" s="19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F258" s="19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G258" s="19" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="H258" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>42627</v>
+      </c>
+      <c r="C259" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D259" s="19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E259" s="19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F259" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G259" s="19" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H259" s="19" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>42628</v>
+      </c>
+      <c r="C260" s="19" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D260" s="19" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E260" s="19" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F260" s="19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G260" s="19" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="H260" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>42629</v>
+      </c>
+      <c r="C261" s="19" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D261" s="19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E261" s="19" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F261" s="19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G261" s="19" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="H261" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>42630</v>
+      </c>
+      <c r="C262" s="19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D262" s="19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E262" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F262" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G262" s="19" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="H262" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>42631</v>
+      </c>
+      <c r="C263" s="19" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D263" s="19" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E263" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="F263" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G263" s="19" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="H263" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>42632</v>
+      </c>
+      <c r="C264" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D264" s="19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E264" s="19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F264" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G264" s="19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H264" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>42633</v>
+      </c>
+      <c r="C265" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D265" s="19" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E265" s="19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F265" s="19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G265" s="19" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="H265" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>42634</v>
+      </c>
+      <c r="C266" s="19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D266" s="19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E266" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="F266" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G266" s="19" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="H266" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>42635</v>
+      </c>
+      <c r="C267" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D267" s="19" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E267" s="19" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F267" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G267" s="19" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="H267" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>42636</v>
+      </c>
+      <c r="C268" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D268" s="19" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E268" s="19" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F268" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G268" s="19" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="H268" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>42637</v>
+      </c>
+      <c r="C269" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D269" s="19" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E269" s="19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F269" s="19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G269" s="19" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="H269" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>42638</v>
+      </c>
+      <c r="C270" s="19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D270" s="19" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E270" s="19" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F270" s="19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G270" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H270" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>42639</v>
+      </c>
+      <c r="C271" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D271" s="19" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E271" s="19" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F271" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G271" s="19" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H271" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B272" s="1" t="n">
+        <v>42640</v>
+      </c>
+      <c r="C272" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D272" s="19" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E272" s="19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F272" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G272" s="19" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="H272" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B273" s="1" t="n">
+        <v>42641</v>
+      </c>
+      <c r="C273" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D273" s="19" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E273" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F273" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G273" s="19" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="H273" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B274" s="1" t="n">
+        <v>42642</v>
+      </c>
+      <c r="C274" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D274" s="19" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E274" s="19" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F274" s="19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G274" s="19" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H274" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B275" s="1" t="n">
+        <v>42643</v>
+      </c>
+      <c r="C275" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D275" s="19" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E275" s="19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F275" s="19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G275" s="19" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="H275" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B276" s="1" t="n">
+        <v>42644</v>
+      </c>
+      <c r="C276" s="19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D276" s="19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E276" s="19" t="n">
+        <v>19</v>
+      </c>
+      <c r="F276" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G276" s="19" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="H276" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B277" s="1" t="n">
+        <v>42645</v>
+      </c>
+      <c r="C277" s="19" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D277" s="19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E277" s="19" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F277" s="19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G277" s="19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H277" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>42646</v>
+      </c>
+      <c r="C278" s="19" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D278" s="19" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E278" s="19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F278" s="19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G278" s="19" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="H278" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>42647</v>
+      </c>
+      <c r="C279" s="19" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D279" s="19" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E279" s="19" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F279" s="19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G279" s="19" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H279" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>42648</v>
+      </c>
+      <c r="C280" s="19" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D280" s="19" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E280" s="19" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F280" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G280" s="19" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="H280" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>42649</v>
+      </c>
+      <c r="C281" s="19" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D281" s="19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E281" s="19" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F281" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G281" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H281" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>42650</v>
+      </c>
+      <c r="C282" s="19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D282" s="19" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E282" s="19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F282" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G282" s="19" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="H282" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>42651</v>
+      </c>
+      <c r="C283" s="19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D283" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E283" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F283" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G283" s="19" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H283" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>42652</v>
+      </c>
+      <c r="C284" s="19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D284" s="19" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E284" s="19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F284" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G284" s="19" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="H284" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>42653</v>
+      </c>
+      <c r="C285" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D285" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E285" s="19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F285" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G285" s="19" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="H285" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>42654</v>
+      </c>
+      <c r="C286" s="19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D286" s="19" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E286" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F286" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G286" s="19" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="H286" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>42655</v>
+      </c>
+      <c r="C287" s="19" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D287" s="19" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E287" s="19" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F287" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G287" s="19" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="H287" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B288" s="1" t="n">
+        <v>42656</v>
+      </c>
+      <c r="C288" s="19" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D288" s="19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E288" s="19" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F288" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G288" s="19" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="H288" s="19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>42657</v>
+      </c>
+      <c r="C289" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D289" s="19" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E289" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F289" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G289" s="19" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H289" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>42658</v>
+      </c>
+      <c r="C290" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D290" s="19" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E290" s="19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F290" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G290" s="19" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="H290" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>42659</v>
+      </c>
+      <c r="C291" s="19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D291" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E291" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F291" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G291" s="19" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H291" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>42660</v>
+      </c>
+      <c r="C292" s="19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D292" s="19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E292" s="19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F292" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G292" s="19" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="H292" s="19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>42661</v>
+      </c>
+      <c r="C293" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D293" s="19" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E293" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F293" s="19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G293" s="19" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="H293" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>42662</v>
+      </c>
+      <c r="C294" s="19" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D294" s="19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E294" s="19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F294" s="19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G294" s="19" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="H294" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>42663</v>
+      </c>
+      <c r="C295" s="19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D295" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E295" s="19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F295" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G295" s="19" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="H295" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>42664</v>
+      </c>
+      <c r="C296" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D296" s="19" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E296" s="19" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F296" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G296" s="19" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="H296" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>42665</v>
+      </c>
+      <c r="C297" s="19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D297" s="19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E297" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F297" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G297" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H297" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>42666</v>
+      </c>
+      <c r="C298" s="19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D298" s="19" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E298" s="19" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F298" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G298" s="19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H298" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>42667</v>
+      </c>
+      <c r="C299" s="19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D299" s="19" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E299" s="19" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="F299" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G299" s="19" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H299" s="19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>42668</v>
+      </c>
+      <c r="C300" s="19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D300" s="19" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E300" s="19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="F300" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G300" s="19" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="H300" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>42669</v>
+      </c>
+      <c r="C301" s="19" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D301" s="19" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E301" s="19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F301" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G301" s="19" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H301" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>42670</v>
+      </c>
+      <c r="C302" s="19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D302" s="19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E302" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F302" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G302" s="19" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H302" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>42671</v>
+      </c>
+      <c r="C303" s="19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D303" s="19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E303" s="19" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="F303" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G303" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H303" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>42672</v>
+      </c>
+      <c r="C304" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D304" s="19" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E304" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F304" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G304" s="19" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="H304" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>42673</v>
+      </c>
+      <c r="C305" s="19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D305" s="19" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E305" s="19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F305" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G305" s="19" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="H305" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>42674</v>
+      </c>
+      <c r="C306" s="19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D306" s="19" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E306" s="19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F306" s="19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G306" s="19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H306" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>42675</v>
+      </c>
+      <c r="C307" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D307" s="19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E307" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F307" s="19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G307" s="19" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="H307" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>42676</v>
+      </c>
+      <c r="C308" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D308" s="19" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E308" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F308" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G308" s="19" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="H308" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>42677</v>
+      </c>
+      <c r="C309" s="19" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D309" s="19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E309" s="19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F309" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G309" s="19" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H309" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>42678</v>
+      </c>
+      <c r="C310" s="19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D310" s="19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E310" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F310" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G310" s="19" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H310" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>42679</v>
+      </c>
+      <c r="C311" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D311" s="19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E311" s="19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F311" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G311" s="19" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H311" s="19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B312" s="1" t="n">
+        <v>42680</v>
+      </c>
+      <c r="C312" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D312" s="19" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E312" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F312" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G312" s="19" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="H312" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B313" s="1" t="n">
+        <v>42681</v>
+      </c>
+      <c r="C313" s="19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D313" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E313" s="19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F313" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G313" s="19" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="H313" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>42682</v>
+      </c>
+      <c r="C314" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D314" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="E314" s="19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F314" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G314" s="19" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="H314" s="19" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>42683</v>
+      </c>
+      <c r="C315" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D315" s="19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E315" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F315" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G315" s="19" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H315" s="19" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B316" s="1" t="n">
+        <v>42684</v>
+      </c>
+      <c r="C316" s="19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D316" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E316" s="19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F316" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G316" s="19" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="H316" s="19" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B317" s="1" t="n">
+        <v>42685</v>
+      </c>
+      <c r="C317" s="19" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D317" s="19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E317" s="19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F317" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G317" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H317" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>42686</v>
+      </c>
+      <c r="C318" s="19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D318" s="19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E318" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F318" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G318" s="19" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="H318" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B319" s="1" t="n">
+        <v>42687</v>
+      </c>
+      <c r="C319" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D319" s="19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E319" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F319" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G319" s="19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H319" s="19" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B320" s="1" t="n">
+        <v>42688</v>
+      </c>
+      <c r="C320" s="19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D320" s="19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E320" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F320" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G320" s="19" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="H320" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B321" s="1" t="n">
+        <v>42689</v>
+      </c>
+      <c r="C321" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D321" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E321" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F321" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G321" s="19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H321" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>42690</v>
+      </c>
+      <c r="C322" s="19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D322" s="19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E322" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F322" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G322" s="19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H322" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>42691</v>
+      </c>
+      <c r="C323" s="19" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D323" s="19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E323" s="19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F323" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G323" s="19" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="H323" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>42692</v>
+      </c>
+      <c r="C324" s="19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D324" s="19" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E324" s="19" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F324" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G324" s="19" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H324" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>42693</v>
+      </c>
+      <c r="C325" s="19" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D325" s="19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E325" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F325" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G325" s="19" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="H325" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>42694</v>
+      </c>
+      <c r="C326" s="19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D326" s="19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E326" s="19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F326" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G326" s="19" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H326" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>42695</v>
+      </c>
+      <c r="C327" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D327" s="19" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E327" s="19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F327" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G327" s="19" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H327" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>42696</v>
+      </c>
+      <c r="C328" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D328" s="19" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E328" s="19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F328" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G328" s="19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H328" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>42697</v>
+      </c>
+      <c r="C329" s="19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D329" s="19" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E329" s="19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F329" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G329" s="19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H329" s="19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>42698</v>
+      </c>
+      <c r="C330" s="19" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D330" s="19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E330" s="19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F330" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G330" s="19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H330" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>42699</v>
+      </c>
+      <c r="C331" s="19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D331" s="19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E331" s="19" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="F331" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G331" s="19" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="H331" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>42700</v>
+      </c>
+      <c r="C332" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D332" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E332" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F332" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G332" s="19" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H332" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>42701</v>
+      </c>
+      <c r="C333" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D333" s="19" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E333" s="19" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F333" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G333" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H333" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B334" s="1" t="n">
+        <v>42702</v>
+      </c>
+      <c r="C334" s="19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D334" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E334" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F334" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" s="19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H334" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B335" s="1" t="n">
+        <v>42703</v>
+      </c>
+      <c r="C335" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D335" s="19" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E335" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F335" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G335" s="19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H335" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B336" s="1" t="n">
+        <v>42704</v>
+      </c>
+      <c r="C336" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D336" s="19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E336" s="19" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="F336" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G336" s="19" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="H336" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B337" s="1" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C337" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" s="19" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E337" s="19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F337" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G337" s="19" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="H337" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B338" s="1" t="n">
+        <v>42706</v>
+      </c>
+      <c r="C338" s="19" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D338" s="19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E338" s="19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F338" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G338" s="19" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="H338" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>42707</v>
+      </c>
+      <c r="C339" s="19" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="D339" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E339" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F339" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G339" s="19" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="H339" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>42708</v>
+      </c>
+      <c r="C340" s="19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D340" s="19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E340" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F340" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G340" s="19" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="H340" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>42709</v>
+      </c>
+      <c r="C341" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D341" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E341" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F341" s="19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G341" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H341" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>42710</v>
+      </c>
+      <c r="C342" s="19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D342" s="19" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E342" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F342" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G342" s="19" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="H342" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>42711</v>
+      </c>
+      <c r="C343" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D343" s="19" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E343" s="19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F343" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G343" s="19" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="H343" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>42712</v>
+      </c>
+      <c r="C344" s="19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D344" s="19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E344" s="19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F344" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G344" s="19" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="H344" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>42713</v>
+      </c>
+      <c r="C345" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D345" s="19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E345" s="19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F345" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G345" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H345" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>42714</v>
+      </c>
+      <c r="C346" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D346" s="19" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="E346" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F346" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G346" s="19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H346" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>42715</v>
+      </c>
+      <c r="C347" s="19" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D347" s="19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E347" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F347" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G347" s="19" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="H347" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>42716</v>
+      </c>
+      <c r="C348" s="19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D348" s="19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E348" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F348" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G348" s="19" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="H348" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>42717</v>
+      </c>
+      <c r="C349" s="19" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D349" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E349" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F349" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G349" s="19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H349" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>42718</v>
+      </c>
+      <c r="C350" s="19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D350" s="19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E350" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F350" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G350" s="19" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H350" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>42719</v>
+      </c>
+      <c r="C351" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D351" s="19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E351" s="19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F351" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G351" s="19" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="H351" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B352" s="1" t="n">
+        <v>42720</v>
+      </c>
+      <c r="C352" s="19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D352" s="19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E352" s="19" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="F352" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G352" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H352" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B353" s="1" t="n">
+        <v>42721</v>
+      </c>
+      <c r="C353" s="19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D353" s="19" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E353" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F353" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G353" s="19" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="H353" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B354" s="1" t="n">
+        <v>42722</v>
+      </c>
+      <c r="C354" s="19" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="D354" s="19" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E354" s="19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F354" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G354" s="19" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="H354" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B355" s="1" t="n">
+        <v>42723</v>
+      </c>
+      <c r="C355" s="19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D355" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E355" s="19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F355" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G355" s="19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H355" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B356" s="1" t="n">
+        <v>42724</v>
+      </c>
+      <c r="C356" s="19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D356" s="19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E356" s="19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F356" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G356" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H356" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B357" s="1" t="n">
+        <v>42725</v>
+      </c>
+      <c r="C357" s="19" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="D357" s="19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E357" s="19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F357" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G357" s="19" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="H357" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B358" s="1" t="n">
+        <v>42726</v>
+      </c>
+      <c r="C358" s="19" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="D358" s="19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E358" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F358" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G358" s="19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H358" s="19" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>42727</v>
+      </c>
+      <c r="C359" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D359" s="19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E359" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="F359" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G359" s="19" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H359" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>42728</v>
+      </c>
+      <c r="C360" s="19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D360" s="19" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E360" s="19" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F360" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G360" s="19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H360" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>42729</v>
+      </c>
+      <c r="C361" s="19" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="D361" s="19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E361" s="19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F361" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G361" s="19" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="H361" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>42730</v>
+      </c>
+      <c r="C362" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D362" s="19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E362" s="19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F362" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G362" s="19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H362" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B363" s="1" t="n">
+        <v>42731</v>
+      </c>
+      <c r="C363" s="19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D363" s="19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E363" s="19" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F363" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G363" s="19" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="H363" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B364" s="1" t="n">
+        <v>42732</v>
+      </c>
+      <c r="C364" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D364" s="19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E364" s="19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F364" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G364" s="19" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="H364" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B365" s="1" t="n">
+        <v>42733</v>
+      </c>
+      <c r="C365" s="19" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="D365" s="19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E365" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F365" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G365" s="19" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="H365" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>42734</v>
+      </c>
+      <c r="C366" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D366" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E366" s="19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F366" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G366" s="19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H366" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
+        <v>31035002</v>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>42735</v>
+      </c>
+      <c r="C367" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="E367" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F367" s="19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G367" s="19" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H367" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inst/doc/files/parameterization_default.xlsx
+++ b/inst/doc/files/parameterization_default.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="design" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="design_metadata" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="climate" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="climate_metadata" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="outputs_metadata" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="indicators_metadata" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="535">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -674,6 +676,960 @@
   </si>
   <si>
     <t xml:space="preserve">Daily sum of rainfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name.vle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name.rsunflo.en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label.doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label.en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viewDynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Température minimale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$°C$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Température maximale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Température moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global incident radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MJ.m^{-2}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference evapotranspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phenologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThermalTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps thermique cumulé depuis la levée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature sum from emergence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhasePhenoPlante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhenoStage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index de phénologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenological stages index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrainte_eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterStress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur de contrainte hydrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of transpirable soil water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FHTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterStressConductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur de réponse de la transpiration à la contrainte hydrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transpiration response to water stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FHRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur de réponse de la photosynthèse à la contrainte hydrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosynthesis response to water stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETRETM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterSupplyDemandRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio ETR/ETM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water supply:demand ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrainte_temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThermalStressRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur de réponse de la photosynthèse à la contrainte thermique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosynthesis response to thermal stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrainte_azote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NitrogenAbsorbed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azote absorbé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorbed nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$kg.ha^{-1}.d^{-1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NitrogenNutritionIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice de nutrition azoté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen nutrition index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNIRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NitrogenStressRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur de réponse de la photosynthèse à la contrainte azote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosynthesis response to nitrogen stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">croissance_plante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice foliaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf area index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficience d'interception de la lumière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation interception efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficience d'utilisation de la lumière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation use efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CropBiomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomasse aérienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop aerial dry biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$g.m^{-2}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elaboration_rendement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo_RDT_aFinMATURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CropYield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendement en grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grain yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$q.ha^{-1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elaboration_qualite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo_TH_aFinMATURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OilContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teneur en huile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grain oil content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\% (dry matter)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayonnement incident (PAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosynthetically active radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(GR*0.48)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(RR)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evapotranspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential evapotranspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(PET)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit hydrique climatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climatic water deficit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(RR-PET)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phenology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps thermique (base 4.8°C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal time (4.8 C basis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(TM - 4.8)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée de la phase semis - levée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of sowing - emergence phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$d$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emergence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée de la phase végétative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of vegetative phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée de la phase de floraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of flowering phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée de la phase de remplissage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of grain filling phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de jours de hautes températures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, high temperature (discrete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(TM &gt; 28)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de jours de basses températures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, low temperature (discrete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(TM &lt; 20)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet des hautes températures sur la photosynthèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, high temperature (continuous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-HTRUE)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet des basses températures sur la photosynthèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, low temperature (continuous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-LTRUE)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet de la contrainte thermique sur la photosynthèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress impact on photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-FTRUE)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit hydrique édaphique (continu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edaphic water deficit (continuous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-FTSW)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$mean(ET/PET)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit hydrique édaphique (discret)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edaphic water deficit (discrete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(ET/PET &lt; 0.6)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet de la contrainte hydrique sur la transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water stress impact on crop transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-FHTR)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet de la contrainte hydrique sur la photosynthèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water stress impact on crop photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-FHRUE)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$kg.ha^{-1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$diff(range(NAB))$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit azoté (continu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen deficit (continuous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-NNI)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFNRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet de la contrainte azote sur la photosynthèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen stress impact on photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(1-FNRUE)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice foliaire maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$max(LAI)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée de surface foliaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf area duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(LAI)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayonnement intercepté (PAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercepted radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(RIE*GR*0.48)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosynthèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$g.MJ^{-1}.m^{-2}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$mean(RUE)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomasse aerienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerial Biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$max(TDM)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$max(GY)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$max(OC)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPET_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPET_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPET_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCWD_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCWD_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCWD_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTSW_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTSW_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTSW_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHRUE_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHRUE_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHRUE_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHTR_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHTR_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFHTR_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTRUE_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTRUE_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFTRUE_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLT_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de jours froids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, cold (discrete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLT_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLT_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHT_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de jours chauds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, heat (discrete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHT_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHT_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLT_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, cold (continuous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLT_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLT_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHT_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal stress, heat (continuous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHT_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHT_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAB_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$max(NAB)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAB_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAB_EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAB_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNI_F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice de nutrition azoté à la floraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen nutrition index at flowering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$max(NNI)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNNID_EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deficit azoté jusqu'à la fin floraison (discret)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen deficit up to end of flowering (discrete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(NNI &lt; 0.8)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNNIE_EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excès azoté jusqu'à la fin floraison (discret)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen excess up to end of flowering (discrete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum(NNI &gt; 1.2)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNNI_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNNI_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNNI_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFNRUE_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFNRUE_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFNRUE_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIR_EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIR_FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIR_MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STDM_F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomasse aerienne à la floraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerial Biomass at flowering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$max(TDM$</t>
   </si>
 </sst>
 </file>
@@ -901,12 +1857,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -12045,7 +13001,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -12053,7 +13009,7 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -12206,6 +13162,4004 @@
       </c>
       <c r="E9" s="0" t="s">
         <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="89.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="59.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="9.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K93"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
